--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -345,7 +345,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -362,7 +362,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -373,7 +373,7 @@
     <row r="5" spans="1:1">
       <c r="A5">
         <f>SUM(A1:A4)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
